--- a/data/working-experience_es.xlsx
+++ b/data/working-experience_es.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1B1C1-AC54-4952-B2F2-B2D157B539EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C3BE34-5C18-4C29-B0BE-9970F8D40AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Working experience" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>what</t>
   </si>
@@ -37,104 +37,88 @@
     <t>why</t>
   </si>
   <si>
-    <t>2011 - 2014</t>
-  </si>
-  <si>
-    <t>Chia, Colombia</t>
-  </si>
-  <si>
-    <t>Ene. 2015 - Abr. 2019</t>
-  </si>
-  <si>
-    <t>Ene. 2015 - Dic. 2016</t>
-  </si>
-  <si>
-    <t>Abr. 2019 - Actualmente</t>
-  </si>
-  <si>
     <t>Bogotá, Colombia</t>
   </si>
   <si>
-    <t>Stirling, Reino Unido</t>
-  </si>
-  <si>
-    <t>Profesor Asociado</t>
-  </si>
-  <si>
-    <t>Profesor Asistente</t>
-  </si>
-  <si>
-    <t>Profesor Catedrático</t>
-  </si>
-  <si>
-    <t>Profesor Auxiliar</t>
-  </si>
-  <si>
-    <t>Supervisión de una variedad de proyectos de investigación de pregrado asociados con psicología y biología</t>
-  </si>
-  <si>
-    <t>Miembro del Comité de Investigación</t>
-  </si>
-  <si>
-    <t>Miembro del Comité Asesor de Asuntos Éticos</t>
-  </si>
-  <si>
-    <t>Organizador de la serie de conferencias semanales Café Nerd de la Facultad de Psicología (2016-2017)</t>
-  </si>
-  <si>
-    <t>Estancia posdoctoral (2018-2019)</t>
-  </si>
-  <si>
-    <t>Co-supervisión de estudiantes de doctorado: Francisco Javier Flores  (Professional Doctorate in Counselling Psychology, University of East London, Reino Unido – 2016-2018)</t>
-  </si>
-  <si>
-    <t>Docencia y supervisión de proyectos de investigación</t>
-  </si>
-  <si>
-    <t>Supervisión de un proyecto de investigación de maestría (Evolutionary Psychology MSc)</t>
-  </si>
-  <si>
-    <t>Calificación y asesoramiento estadístico a estudiantes de maestría</t>
-  </si>
-  <si>
-    <t>Supervisión de proyectos de investigación</t>
-  </si>
-  <si>
-    <t>Líder del grupo de investigación \href{https://investigaciones.unbosque.edu.co/codec}{\textit{\textbf{CODEC}: Ciencias Cognitivas y del Comportamiento}} (desde 2016)</t>
-  </si>
-  <si>
-    <t>Investigador en \href{https://jdleongomez.info/es/team/}{\textit{\textbf{EvoCo}: Laboratorio de Evolución y Comportamiento Humano}}</t>
-  </si>
-  <si>
-    <t>\href{https://www.unbosque.edu.co/}{Universidad El Bosque}</t>
-  </si>
-  <si>
-    <t>\href{https://www.unisabana.edu.co/}{Universidad de La Sabana}</t>
-  </si>
-  <si>
-    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
-  </si>
-  <si>
-    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
-  </si>
-  <si>
-    <t>\href{https://asesores-psic.netlify.app/}{Asesor metodológico y estadístico} para proyectos de investigación de posgrado y profesores de la Facultad</t>
-  </si>
-  <si>
-    <t>Co-supervisión de estudiantes de doctorado: \href{https://www.researchgate.net/profile/Milena-Vasquez-Amezquita}{Milena Vásquez-Amézquita} (PhD en Neurociencia, Universidad de Valencia, España - 2015-2018)</t>
-  </si>
-  <si>
-    <t>Profesor reconocido de Psicología</t>
+    <t>Sep. - Oct. 2022</t>
+  </si>
+  <si>
+    <t>\href{https://www.redpapaz.org/}{ONG RedPapaz}</t>
+  </si>
+  <si>
+    <t>Asesora Científica externa</t>
+  </si>
+  <si>
+    <t>Consultora científica internacional</t>
+  </si>
+  <si>
+    <t>Jul. - Ago. 2021</t>
+  </si>
+  <si>
+    <t>\href{https://www.suojellaanlapsia.fi/en}{Protect Children}</t>
+  </si>
+  <si>
+    <t>Helsink, Finlandia</t>
+  </si>
+  <si>
+    <t>Profesional Validador</t>
+  </si>
+  <si>
+    <t>Sep. 2020 - Ene.2021</t>
+  </si>
+  <si>
+    <t>\href{https://https://www.areandina.edu.co/}{Fundación del area Andina}</t>
+  </si>
+  <si>
+    <t>Validador experto de Instrumento de selección para la provisión de empleos vacantes propias de convocatorias territoriales 2019-II</t>
+  </si>
+  <si>
+    <t>Profesional en Neuropsicología</t>
+  </si>
+  <si>
+    <t>Ago. 2013 - Ene. 2021</t>
+  </si>
+  <si>
+    <t>\href{https://web.facebook.com/ACYSTERAPIAS/}{Centro de Atención Terapéutica ACYS, Colombia}</t>
+  </si>
+  <si>
+    <t>Evaluación neuropsicológica en niños, niñas y adolescentes</t>
+  </si>
+  <si>
+    <t>\href{https://neurolearningterapias.com/nosotros/}{Organización de Terapia Integral Pavlov, Colombia }</t>
+  </si>
+  <si>
+    <t>Ago. 2008 - Sept. 2009</t>
+  </si>
+  <si>
+    <t>Evaluación y entrenamiento en Neurofeedback</t>
+  </si>
+  <si>
+    <t>Psicóloga especialista en Neuropsicología</t>
+  </si>
+  <si>
+    <t>Traducción y adaptación al español del \href{https://www.mielenterveystalo.fi/en/self-help/redirection-self-help-program-stop-using-csam}{Global ReDirection Program: Protecting Children Through Prevention}</t>
+  </si>
+  <si>
+    <t>Consultoria en implementación de proyecto de prevención de abuso sexual contra menores \href{https://childhelplineinternational.org/te-guio/}{TeGuío Helpline}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,16 +141,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,18 +432,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="128.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,216 +464,93 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
